--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1569065.4985905</v>
+        <v>-1571015.724419061</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>624007.0685814982</v>
+        <v>205888.105466112</v>
       </c>
     </row>
     <row r="8">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>289.6289256553912</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>192.6655493102138</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>149.2591546030879</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>326.3663089478401</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>139.6528551206848</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>80.74987568070254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>11.60337937822635</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>139.1005047045666</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>141.3236091729814</v>
       </c>
       <c r="X7" t="n">
-        <v>205.3644314241348</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>260.3666936615357</v>
       </c>
       <c r="C8" t="n">
-        <v>134.5039760698515</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>125.8721928563316</v>
       </c>
       <c r="W10" t="n">
-        <v>62.27914576410203</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.876045741713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>36.86829856162689</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>59.77945773664848</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710093</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>137.8140118566894</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>161.8175117958952</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722636</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>273.8496328590085</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>94.16481274941263</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417139</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2138,7 +2138,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>8.525532102719195</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>36.88234405457788</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>170.5105409241919</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>36.28627157371931</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522965</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898708</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D28" t="n">
-        <v>80.4835828885716</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692842</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329049</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373685</v>
+        <v>98.36167833373663</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789537</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463124</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415205</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S28" t="n">
-        <v>129.7889198539647</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T28" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U28" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X28" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522965</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898708</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D31" t="n">
-        <v>80.4835828885716</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692842</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329049</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373685</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789748</v>
+        <v>80.78193823789509</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463124</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415205</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
         <v>42.2873553346313</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1157.367208492925</v>
+        <v>617.517164730689</v>
       </c>
       <c r="C2" t="n">
-        <v>1157.367208492925</v>
+        <v>248.5546477902774</v>
       </c>
       <c r="D2" t="n">
-        <v>799.1015098861748</v>
+        <v>248.5546477902774</v>
       </c>
       <c r="E2" t="n">
-        <v>799.1015098861748</v>
+        <v>248.5546477902774</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2315.176091031484</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2061.414305669575</v>
       </c>
       <c r="V2" t="n">
-        <v>1840.061010827718</v>
+        <v>1730.351418326005</v>
       </c>
       <c r="W2" t="n">
-        <v>1840.061010827718</v>
+        <v>1377.582763055891</v>
       </c>
       <c r="X2" t="n">
-        <v>1840.061010827718</v>
+        <v>1004.117004794811</v>
       </c>
       <c r="Y2" t="n">
-        <v>1449.921678851906</v>
+        <v>1004.117004794811</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,22 +4416,22 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>391.878965009939</v>
+        <v>195.0064718412582</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>195.0064718412582</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>195.0064718412582</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>195.0064718412582</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>195.0064718412582</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005476</v>
+        <v>195.0064718412582</v>
       </c>
       <c r="X4" t="n">
-        <v>473.4444960005476</v>
+        <v>195.0064718412582</v>
       </c>
       <c r="Y4" t="n">
-        <v>391.878965009939</v>
+        <v>195.0064718412582</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1780.41262192169</v>
+        <v>490.5728759019127</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>490.5728759019127</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>490.5728759019127</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>490.5728759019127</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>483.6273751527092</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>65.66356705089612</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2170.551953897502</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>2170.551953897502</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y5" t="n">
-        <v>1780.41262192169</v>
+        <v>877.1727159660345</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,28 +4665,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W7" t="n">
-        <v>409.2948950230958</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X7" t="n">
-        <v>201.8560754027576</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.8560754027576</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1404.543549400789</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.68094731003</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2147.451536646714</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1794.6828813766</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1794.6828813766</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1404.543549400789</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4890,10 +4890,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4905,7 +4905,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245969</v>
+        <v>600.9853550586245</v>
       </c>
       <c r="W10" t="n">
-        <v>450.9323329800494</v>
+        <v>600.9853550586245</v>
       </c>
       <c r="X10" t="n">
-        <v>222.942782082032</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.942782082032</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5036,55 +5036,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256436</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277036</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341677</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="N12" t="n">
-        <v>2107.32270539078</v>
+        <v>1466.525085699305</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>599.9410747082374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>599.9410747082374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>599.9410747082374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>599.9410747082374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>453.051127210327</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>284.8758055301475</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>134.4577970780908</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799353</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947118</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247849</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>675.0071030383431</v>
       </c>
       <c r="V13" t="n">
-        <v>1298.996260473455</v>
+        <v>675.0071030383431</v>
       </c>
       <c r="W13" t="n">
-        <v>1009.579090436494</v>
+        <v>385.5899330013825</v>
       </c>
       <c r="X13" t="n">
-        <v>781.5895395384771</v>
+        <v>157.6003821033651</v>
       </c>
       <c r="Y13" t="n">
-        <v>781.5895395384771</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155903</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571611</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>608.7668769249128</v>
       </c>
       <c r="M15" t="n">
-        <v>1608.660951743752</v>
+        <v>1377.135023317374</v>
       </c>
       <c r="N15" t="n">
-        <v>1953.18160738137</v>
+        <v>2181.546601581525</v>
       </c>
       <c r="O15" t="n">
-        <v>2440.930027762787</v>
+        <v>2430.300015665487</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>573.5346686508867</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>404.5984857229798</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>404.5984857229798</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V16" t="n">
-        <v>755.1831334811264</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W16" t="n">
-        <v>755.1831334811264</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>755.1831334811264</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>755.1831334811264</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5510,55 +5510,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047986</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L18" t="n">
-        <v>1122.004430061688</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M18" t="n">
-        <v>1442.339749591389</v>
+        <v>772.8730769161741</v>
       </c>
       <c r="N18" t="n">
-        <v>1786.860405229007</v>
+        <v>1577.284655180325</v>
       </c>
       <c r="O18" t="n">
-        <v>2035.61381931297</v>
+        <v>2246.748416482984</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>994.3109288932103</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>825.3747459653034</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>675.2581065529677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557903</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557903</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W19" t="n">
-        <v>1222.300479791228</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="X19" t="n">
-        <v>994.3109288932103</v>
+        <v>192.33306393444</v>
       </c>
       <c r="Y19" t="n">
-        <v>994.3109288932103</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
         <v>904.3190116155888</v>
@@ -5744,58 +5744,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.2170914602859</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L21" t="n">
-        <v>97.2170914602859</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="M21" t="n">
-        <v>417.5524109899877</v>
+        <v>549.3729734629516</v>
       </c>
       <c r="N21" t="n">
-        <v>1138.699705022017</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765191</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706323</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>531.3977182706323</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>303.4081673726149</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.2170914602859</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L24" t="n">
-        <v>97.2170914602859</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M24" t="n">
-        <v>865.5852378527475</v>
+        <v>772.8730769161741</v>
       </c>
       <c r="N24" t="n">
-        <v>1559.410052240715</v>
+        <v>1577.284655180325</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>527.3450129705745</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1326.683400937507</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1326.683400937507</v>
+        <v>1151.268357465867</v>
       </c>
       <c r="U25" t="n">
-        <v>1037.554762151065</v>
+        <v>1151.268357465867</v>
       </c>
       <c r="V25" t="n">
-        <v>1037.554762151065</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="W25" t="n">
-        <v>748.1375921141047</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X25" t="n">
-        <v>748.1375921141047</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y25" t="n">
-        <v>527.3450129705745</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="26">
@@ -6206,40 +6206,40 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899127</v>
@@ -6306,25 +6306,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="M27" t="n">
-        <v>865.5852378527472</v>
+        <v>990.9427979105848</v>
       </c>
       <c r="N27" t="n">
-        <v>1559.410052240715</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229666</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F28" t="n">
         <v>320.884739850451</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H28" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6385,49 +6385,49 @@
         <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M28" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N28" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O28" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P28" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q28" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R28" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S28" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T28" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U28" t="n">
-        <v>1489.892037025261</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859415</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W28" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045198</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010309</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="29">
@@ -6440,52 +6440,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>614.5476508568242</v>
       </c>
       <c r="L30" t="n">
-        <v>711.1141612171745</v>
+        <v>1228.444720613713</v>
       </c>
       <c r="M30" t="n">
-        <v>1479.482307609636</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="N30" t="n">
-        <v>2283.893885873787</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O30" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108346</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229688</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506743</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083223</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504531</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103149</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M31" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N31" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859418</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045219</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.288612901033</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6686,10 +6686,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,19 +6698,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6783,22 +6783,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>201.7151742891871</v>
       </c>
       <c r="M33" t="n">
-        <v>334.2881267578673</v>
+        <v>970.0833206816486</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649692</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6917,52 +6917,52 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M36" t="n">
-        <v>334.2881267578673</v>
+        <v>1095.548343721096</v>
       </c>
       <c r="N36" t="n">
-        <v>1138.699705022018</v>
+        <v>1440.068999358714</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
@@ -7111,10 +7111,10 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7166,19 +7166,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7190,13 +7190,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7248,22 +7248,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>323.6581146605672</v>
+        <v>270.0269952192064</v>
       </c>
       <c r="L39" t="n">
-        <v>323.6581146605672</v>
+        <v>883.924064976095</v>
       </c>
       <c r="M39" t="n">
-        <v>323.6581146605672</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N39" t="n">
-        <v>1128.069692924718</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O39" t="n">
         <v>1797.533454227377</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649697</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384656</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7424,13 +7424,13 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
@@ -7488,22 +7488,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>323.6581146605672</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L42" t="n">
-        <v>323.6581146605672</v>
+        <v>800.8708618797941</v>
       </c>
       <c r="M42" t="n">
-        <v>323.6581146605672</v>
+        <v>1121.206181409496</v>
       </c>
       <c r="N42" t="n">
-        <v>1128.069692924718</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108319</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229661</v>
       </c>
       <c r="D43" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506714</v>
       </c>
       <c r="E43" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7570,16 +7570,16 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045196</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010305</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,22 +7722,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>493.5013994809973</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605672</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O45" t="n">
         <v>1797.533454227377</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.0503551525401</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7822,34 +7822,34 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384655</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013773</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>240.230659194131</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -9717,10 +9717,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9729,7 +9729,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>365.0697788354061</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,16 +10200,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,10 +10431,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>244.1079987989663</v>
       </c>
       <c r="M33" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10668,10 +10668,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>198.568530941954</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>198.568530941954</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11379,10 +11379,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -22550,16 +22550,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>214.2104964314976</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.38594952229479</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.488243368240514e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>73.55094690264508</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238353</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>158.8051956154463</v>
       </c>
     </row>
     <row r="14">
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>8.619950789879795</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>124.7054865406958</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>12.67336547758254</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>124.4198406026822</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.3952778808841</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>181.7023092975169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>27.41026905941138</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>185.2612894846699</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>-2.188471626141109e-12</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1278190.030097763</v>
+        <v>1278190.030097764</v>
       </c>
     </row>
     <row r="3">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77466.06243016744</v>
+        <v>77466.06243016745</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642828</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.1769864283</v>
       </c>
       <c r="E2" t="n">
         <v>78205.81194754176</v>
       </c>
       <c r="F2" t="n">
-        <v>78205.81194754176</v>
+        <v>78205.81194754178</v>
       </c>
       <c r="G2" t="n">
-        <v>78205.81194754176</v>
+        <v>78205.81194754175</v>
       </c>
       <c r="H2" t="n">
+        <v>78205.81194754173</v>
+      </c>
+      <c r="I2" t="n">
         <v>78205.81194754179</v>
       </c>
-      <c r="I2" t="n">
-        <v>78205.81194754181</v>
-      </c>
       <c r="J2" t="n">
-        <v>82104.17698642849</v>
+        <v>82104.17698642828</v>
       </c>
       <c r="K2" t="n">
-        <v>82104.17698642849</v>
+        <v>82104.17698642852</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642844</v>
       </c>
       <c r="M2" t="n">
+        <v>82104.17698642846</v>
+      </c>
+      <c r="N2" t="n">
         <v>82104.17698642839</v>
-      </c>
-      <c r="N2" t="n">
-        <v>82104.17698642846</v>
       </c>
       <c r="O2" t="n">
         <v>82104.17698642843</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>230928.7312963053</v>
+        <v>230928.7312963055</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.51210371251</v>
+        <v>54505.51210371248</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905757666</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905757877</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905757878</v>
+        <v>787.793690575885</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905757585</v>
+        <v>787.793690575885</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>23206.58093189638</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="K4" t="n">
-        <v>23206.58093189638</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189634</v>
+      </c>
+      <c r="M4" t="n">
         <v>23206.58093189636</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>23206.58093189637</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189634</v>
       </c>
       <c r="O4" t="n">
         <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26470,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-707947.203214133</v>
+        <v>-708063.1560780396</v>
       </c>
       <c r="C6" t="n">
-        <v>-139814.0402576003</v>
+        <v>-139814.0402576002</v>
       </c>
       <c r="D6" t="n">
         <v>-139814.0402576002</v>
       </c>
       <c r="E6" t="n">
-        <v>-539729.3441686472</v>
+        <v>-539826.803294619</v>
       </c>
       <c r="F6" t="n">
-        <v>-14569.30769175068</v>
+        <v>-14666.76681772289</v>
       </c>
       <c r="G6" t="n">
-        <v>-14569.30769175074</v>
+        <v>-14666.76681772294</v>
       </c>
       <c r="H6" t="n">
-        <v>-14569.30769175064</v>
+        <v>-14666.76681772295</v>
       </c>
       <c r="I6" t="n">
-        <v>-14569.30769175074</v>
+        <v>-14666.76681772288</v>
       </c>
       <c r="J6" t="n">
-        <v>-269746.2410617986</v>
+        <v>-269746.2410617989</v>
       </c>
       <c r="K6" t="n">
-        <v>-38817.50976549328</v>
+        <v>-38817.50976549323</v>
       </c>
       <c r="L6" t="n">
-        <v>-38817.50976549341</v>
+        <v>-38817.50976549329</v>
       </c>
       <c r="M6" t="n">
-        <v>-173618.5249993306</v>
+        <v>-173618.5249993305</v>
       </c>
       <c r="N6" t="n">
-        <v>-38817.50976549329</v>
+        <v>-38817.50976549338</v>
       </c>
       <c r="O6" t="n">
-        <v>-93323.02186920584</v>
+        <v>-93323.0218692058</v>
       </c>
       <c r="P6" t="n">
-        <v>-38817.50976549329</v>
+        <v>-38817.50976549333</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964068</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964069</v>
-      </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,40 +26735,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26790,25 +26790,25 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545549</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93.10491600808939</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>67.18916575456993</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>27.65694713836606</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,16 +27594,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>137.8347776713923</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>312.3193933861308</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>210.1404640128465</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,13 +27780,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>145.1993891636096</v>
       </c>
       <c r="X7" t="n">
-        <v>20.34522396490235</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>122.3671480019448</v>
       </c>
       <c r="C8" t="n">
-        <v>230.7689157011561</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,10 +28068,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>126.2654504674964</v>
       </c>
       <c r="W10" t="n">
-        <v>224.243852572489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964075</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31136,7 +31136,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>190.1500580638411</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31373,31 +31373,31 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>162.4518126576417</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392695</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,13 +31610,13 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>73.87984549392695</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,37 +31762,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>368.95525125851</v>
+        <v>381.176133090731</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +31999,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,25 +32072,25 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>241.4090972701567</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32099,13 +32099,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32236,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>339.3147979156448</v>
+        <v>115.3101420900744</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,40 +32464,40 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961214</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,7 +32546,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -32558,22 +32558,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>6.52828526780462</v>
       </c>
       <c r="N21" t="n">
-        <v>380.4309478731432</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,7 +32783,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -32795,22 +32795,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>352.8324835862112</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33032,28 +33032,28 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>352.8324835862117</v>
+        <v>18.50615977666621</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33260,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>227.9311082690289</v>
       </c>
       <c r="L30" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>91.84465193776708</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33506,28 +33506,28 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33743,13 +33743,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>109.809132105758</v>
       </c>
       <c r="P36" t="n">
         <v>341.0678223458549</v>
@@ -33758,13 +33758,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33971,22 +33971,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>47.93166030412434</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>341.0678223458549</v>
@@ -34144,7 +34144,7 @@
         <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540898</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946992</v>
@@ -34153,7 +34153,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
         <v>76.06970478104648</v>
@@ -34208,25 +34208,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>351.8516207003249</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34381,7 +34381,7 @@
         <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540898</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946992</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -34454,13 +34454,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>394.3663287829269</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>341.0678223458549</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>513.7210878918227</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856233</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,13 +35258,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004663</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>226.3590068140656</v>
+        <v>632.4422079230161</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799274</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594837</v>
+        <v>101.6762794142569</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>492.6751721024418</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594837</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>523.8031591412517</v>
+        <v>299.7985033156813</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415089</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>330.0993150957862</v>
       </c>
       <c r="N21" t="n">
-        <v>728.4316101333634</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>700.8331458464314</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>222.4735343909616</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>700.8331458464319</v>
+        <v>366.5068220368864</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520627</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K28" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L28" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M28" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N28" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q28" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36847,13 +36847,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>354.5549063072485</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>343.1107267700522</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520627</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>105.5536190190922</v>
       </c>
       <c r="M33" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37321,13 +37321,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,16 +37388,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>361.0752069380431</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37406,7 +37406,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414415</v>
@@ -37561,7 +37561,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349808</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>60.72709196759495</v>
+        <v>174.5554583423439</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37792,7 +37792,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>60.72709196759495</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>584.1375862239099</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38029,7 +38029,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>228.7283062629105</v>
+        <v>717.9373586109085</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
